--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.752988</v>
+        <v>8.324180999999999</v>
       </c>
       <c r="H2">
-        <v>15.505976</v>
+        <v>16.648362</v>
       </c>
       <c r="I2">
-        <v>0.02809911116094141</v>
+        <v>0.03221365972001074</v>
       </c>
       <c r="J2">
-        <v>0.0202773277895056</v>
+        <v>0.02302570742897383</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N2">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O2">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P2">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q2">
-        <v>0.410086547272</v>
+        <v>5.509975184243999</v>
       </c>
       <c r="R2">
-        <v>1.640346189088</v>
+        <v>22.039900736976</v>
       </c>
       <c r="S2">
-        <v>9.056729329418069E-05</v>
+        <v>0.001912372872104592</v>
       </c>
       <c r="T2">
-        <v>5.80899256032348E-05</v>
+        <v>0.001184699017183203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.752988</v>
+        <v>8.324180999999999</v>
       </c>
       <c r="H3">
-        <v>15.505976</v>
+        <v>16.648362</v>
       </c>
       <c r="I3">
-        <v>0.02809911116094141</v>
+        <v>0.03221365972001074</v>
       </c>
       <c r="J3">
-        <v>0.0202773277895056</v>
+        <v>0.02302570742897383</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.447531</v>
       </c>
       <c r="O3">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P3">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q3">
-        <v>21.83120215754267</v>
+        <v>23.439592349037</v>
       </c>
       <c r="R3">
-        <v>130.987212945256</v>
+        <v>140.637554094222</v>
       </c>
       <c r="S3">
-        <v>0.004821403925389669</v>
+        <v>0.008135289006322264</v>
       </c>
       <c r="T3">
-        <v>0.004638677802028771</v>
+        <v>0.007559615358654949</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.752988</v>
+        <v>8.324180999999999</v>
       </c>
       <c r="H4">
-        <v>15.505976</v>
+        <v>16.648362</v>
       </c>
       <c r="I4">
-        <v>0.02809911116094141</v>
+        <v>0.03221365972001074</v>
       </c>
       <c r="J4">
-        <v>0.0202773277895056</v>
+        <v>0.02302570742897383</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N4">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O4">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P4">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q4">
-        <v>1.754726021052</v>
+        <v>1.663551501399</v>
       </c>
       <c r="R4">
-        <v>10.528356126312</v>
+        <v>9.981309008394</v>
       </c>
       <c r="S4">
-        <v>0.0003875298696256404</v>
+        <v>0.0005773766044757257</v>
       </c>
       <c r="T4">
-        <v>0.0003728428963168184</v>
+        <v>0.0005365199740944321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.752988</v>
+        <v>8.324180999999999</v>
       </c>
       <c r="H5">
-        <v>15.505976</v>
+        <v>16.648362</v>
       </c>
       <c r="I5">
-        <v>0.02809911116094141</v>
+        <v>0.03221365972001074</v>
       </c>
       <c r="J5">
-        <v>0.0202773277895056</v>
+        <v>0.02302570742897383</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N5">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O5">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P5">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q5">
-        <v>94.990140055678</v>
+        <v>58.75156172295899</v>
       </c>
       <c r="R5">
-        <v>379.960560222712</v>
+        <v>235.006246891836</v>
       </c>
       <c r="S5">
-        <v>0.02097849815290756</v>
+        <v>0.02039117946557159</v>
       </c>
       <c r="T5">
-        <v>0.01345562346675874</v>
+        <v>0.01263216531903813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.752988</v>
+        <v>8.324180999999999</v>
       </c>
       <c r="H6">
-        <v>15.505976</v>
+        <v>16.648362</v>
       </c>
       <c r="I6">
-        <v>0.02809911116094141</v>
+        <v>0.03221365972001074</v>
       </c>
       <c r="J6">
-        <v>0.0202773277895056</v>
+        <v>0.02302570742897383</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N6">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O6">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P6">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q6">
-        <v>3.891508953426667</v>
+        <v>1.105595522604</v>
       </c>
       <c r="R6">
-        <v>23.34905372056</v>
+        <v>6.633573135623999</v>
       </c>
       <c r="S6">
-        <v>0.0008594367093640756</v>
+        <v>0.0003837242118610892</v>
       </c>
       <c r="T6">
-        <v>0.0008268649645763887</v>
+        <v>0.0003565709150859324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.752988</v>
+        <v>8.324180999999999</v>
       </c>
       <c r="H7">
-        <v>15.505976</v>
+        <v>16.648362</v>
       </c>
       <c r="I7">
-        <v>0.02809911116094141</v>
+        <v>0.03221365972001074</v>
       </c>
       <c r="J7">
-        <v>0.0202773277895056</v>
+        <v>0.02302570742897383</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N7">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O7">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P7">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q7">
-        <v>4.354442451235999</v>
+        <v>2.344502803923</v>
       </c>
       <c r="R7">
-        <v>26.126654707416</v>
+        <v>14.067016823538</v>
       </c>
       <c r="S7">
-        <v>0.0009616752103602809</v>
+        <v>0.0008137175596754827</v>
       </c>
       <c r="T7">
-        <v>0.0009252287342216513</v>
+        <v>0.0007561368449171882</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>206.1033023333333</v>
       </c>
       <c r="H8">
-        <v>618.309907</v>
+        <v>618.3099070000001</v>
       </c>
       <c r="I8">
-        <v>0.7469790489681458</v>
+        <v>0.7975969826384718</v>
       </c>
       <c r="J8">
-        <v>0.8085703640801277</v>
+        <v>0.8551605869104734</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N8">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O8">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P8">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q8">
-        <v>10.90162807361933</v>
+        <v>136.4247222936893</v>
       </c>
       <c r="R8">
-        <v>65.409768441716</v>
+        <v>818.5483337621361</v>
       </c>
       <c r="S8">
-        <v>0.002407616035433331</v>
+        <v>0.04734956679022689</v>
       </c>
       <c r="T8">
-        <v>0.002316369927141189</v>
+        <v>0.04399899156070354</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>206.1033023333333</v>
       </c>
       <c r="H9">
-        <v>618.309907</v>
+        <v>618.3099070000001</v>
       </c>
       <c r="I9">
-        <v>0.7469790489681458</v>
+        <v>0.7975969826384718</v>
       </c>
       <c r="J9">
-        <v>0.8085703640801277</v>
+        <v>0.8551605869104734</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>8.447531</v>
       </c>
       <c r="O9">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P9">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q9">
-        <v>580.3546785544017</v>
+        <v>580.3546785544019</v>
       </c>
       <c r="R9">
-        <v>5223.192106989616</v>
+        <v>5223.192106989617</v>
       </c>
       <c r="S9">
-        <v>0.1281708769452122</v>
+        <v>0.201426414158832</v>
       </c>
       <c r="T9">
-        <v>0.1849700038472505</v>
+        <v>0.2807594566580012</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,43 +1042,43 @@
         <v>206.1033023333333</v>
       </c>
       <c r="H10">
-        <v>618.309907</v>
+        <v>618.3099070000001</v>
       </c>
       <c r="I10">
-        <v>0.7469790489681458</v>
+        <v>0.7975969826384718</v>
       </c>
       <c r="J10">
-        <v>0.8085703640801277</v>
+        <v>0.8551605869104734</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N10">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O10">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P10">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q10">
-        <v>46.647154313801</v>
+        <v>41.18885185700656</v>
       </c>
       <c r="R10">
-        <v>419.824388824209</v>
+        <v>370.6996667130591</v>
       </c>
       <c r="S10">
-        <v>0.01030198755404376</v>
+        <v>0.01429560756457048</v>
       </c>
       <c r="T10">
-        <v>0.01486732963776434</v>
+        <v>0.01992602126779624</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>206.1033023333333</v>
       </c>
       <c r="H11">
-        <v>618.309907</v>
+        <v>618.3099070000001</v>
       </c>
       <c r="I11">
-        <v>0.7469790489681458</v>
+        <v>0.7975969826384718</v>
       </c>
       <c r="J11">
-        <v>0.8085703640801277</v>
+        <v>0.8551605869104734</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N11">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O11">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P11">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q11">
-        <v>2525.191778264209</v>
+        <v>1454.664535567224</v>
       </c>
       <c r="R11">
-        <v>15151.15066958526</v>
+        <v>8727.987213403347</v>
       </c>
       <c r="S11">
-        <v>0.5576866296333725</v>
+        <v>0.5048772277207764</v>
       </c>
       <c r="T11">
-        <v>0.5365508945943558</v>
+        <v>0.4691508367984246</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,43 +1166,43 @@
         <v>206.1033023333333</v>
       </c>
       <c r="H12">
-        <v>618.309907</v>
+        <v>618.3099070000001</v>
       </c>
       <c r="I12">
-        <v>0.7469790489681458</v>
+        <v>0.7975969826384718</v>
       </c>
       <c r="J12">
-        <v>0.8085703640801277</v>
+        <v>0.8551605869104734</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N12">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O12">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P12">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q12">
-        <v>103.4508045621856</v>
+        <v>27.37409100710711</v>
       </c>
       <c r="R12">
-        <v>931.05724105967</v>
+        <v>246.366819063964</v>
       </c>
       <c r="S12">
-        <v>0.02284702929327753</v>
+        <v>0.009500853867765023</v>
       </c>
       <c r="T12">
-        <v>0.03297172647170259</v>
+        <v>0.01324282408958237</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>206.1033023333333</v>
       </c>
       <c r="H13">
-        <v>618.309907</v>
+        <v>618.3099070000001</v>
       </c>
       <c r="I13">
-        <v>0.7469790489681458</v>
+        <v>0.7975969826384718</v>
       </c>
       <c r="J13">
-        <v>0.8085703640801277</v>
+        <v>0.8551605869104734</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N13">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O13">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P13">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q13">
-        <v>115.7573014456096</v>
+        <v>58.04892640108255</v>
       </c>
       <c r="R13">
-        <v>1041.815713010487</v>
+        <v>522.440337609743</v>
       </c>
       <c r="S13">
-        <v>0.02556490950680652</v>
+        <v>0.02014731253630096</v>
       </c>
       <c r="T13">
-        <v>0.03689403960191328</v>
+        <v>0.02808245653596553</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1909396666666666</v>
+        <v>0.03633366666666667</v>
       </c>
       <c r="H14">
-        <v>0.572819</v>
+        <v>0.109001</v>
       </c>
       <c r="I14">
-        <v>0.0006920215688067317</v>
+        <v>0.0001406072710793166</v>
       </c>
       <c r="J14">
-        <v>0.0007490814268677321</v>
+        <v>0.0001507550794165562</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N14">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O14">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P14">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q14">
-        <v>0.01009956272866666</v>
+        <v>0.02405012597466667</v>
       </c>
       <c r="R14">
-        <v>0.06059737637199999</v>
+        <v>0.144300755848</v>
       </c>
       <c r="S14">
-        <v>2.230480531182699E-06</v>
+        <v>8.347189768870258E-06</v>
       </c>
       <c r="T14">
-        <v>2.145947671666676E-06</v>
+        <v>7.756521486737631E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1909396666666666</v>
+        <v>0.03633366666666667</v>
       </c>
       <c r="H15">
-        <v>0.572819</v>
+        <v>0.109001</v>
       </c>
       <c r="I15">
-        <v>0.0006920215688067317</v>
+        <v>0.0001406072710793166</v>
       </c>
       <c r="J15">
-        <v>0.0007490814268677321</v>
+        <v>0.0001507550794165562</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.447531</v>
       </c>
       <c r="O15">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P15">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q15">
-        <v>0.5376562510987777</v>
+        <v>0.1023099251701111</v>
       </c>
       <c r="R15">
-        <v>4.838906259889</v>
+        <v>0.920789326531</v>
       </c>
       <c r="S15">
-        <v>0.0001187409626300546</v>
+        <v>3.550918450628489E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001713612080839232</v>
+        <v>4.94946970584102E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1909396666666666</v>
+        <v>0.03633366666666667</v>
       </c>
       <c r="H16">
-        <v>0.572819</v>
+        <v>0.109001</v>
       </c>
       <c r="I16">
-        <v>0.0006920215688067317</v>
+        <v>0.0001406072710793166</v>
       </c>
       <c r="J16">
-        <v>0.0007490814268677321</v>
+        <v>0.0001507550794165562</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N16">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O16">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P16">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q16">
-        <v>0.04321518381699999</v>
+        <v>0.007261125837444445</v>
       </c>
       <c r="R16">
-        <v>0.388936654353</v>
+        <v>0.06535013253700001</v>
       </c>
       <c r="S16">
-        <v>9.544039553485257E-06</v>
+        <v>2.520152924131858E-06</v>
       </c>
       <c r="T16">
-        <v>1.377349578158148E-05</v>
+        <v>3.512730783741199E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1909396666666666</v>
+        <v>0.03633366666666667</v>
       </c>
       <c r="H17">
-        <v>0.572819</v>
+        <v>0.109001</v>
       </c>
       <c r="I17">
-        <v>0.0006920215688067317</v>
+        <v>0.0001406072710793166</v>
       </c>
       <c r="J17">
-        <v>0.0007490814268677321</v>
+        <v>0.0001507550794165562</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N17">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O17">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P17">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q17">
-        <v>2.339405875367166</v>
+        <v>0.2564408029796666</v>
       </c>
       <c r="R17">
-        <v>14.036435252203</v>
+        <v>1.538644817878</v>
       </c>
       <c r="S17">
-        <v>0.0005166559582555077</v>
+        <v>8.900410955050788E-05</v>
       </c>
       <c r="T17">
-        <v>0.0004970752423843086</v>
+        <v>8.270595341094071E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1909396666666666</v>
+        <v>0.03633366666666667</v>
       </c>
       <c r="H18">
-        <v>0.572819</v>
+        <v>0.109001</v>
       </c>
       <c r="I18">
-        <v>0.0006920215688067317</v>
+        <v>0.0001406072710793166</v>
       </c>
       <c r="J18">
-        <v>0.0007490814268677321</v>
+        <v>0.0001507550794165562</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N18">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O18">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P18">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q18">
-        <v>0.09583961982111111</v>
+        <v>0.004825740716888888</v>
       </c>
       <c r="R18">
-        <v>0.86255657839</v>
+        <v>0.043431666452</v>
       </c>
       <c r="S18">
-        <v>2.116610509484517E-05</v>
+        <v>1.674892413522747E-06</v>
       </c>
       <c r="T18">
-        <v>3.054589805528413E-05</v>
+        <v>2.334559178571545E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1909396666666666</v>
+        <v>0.03633366666666667</v>
       </c>
       <c r="H19">
-        <v>0.572819</v>
+        <v>0.109001</v>
       </c>
       <c r="I19">
-        <v>0.0006920215688067317</v>
+        <v>0.0001406072710793166</v>
       </c>
       <c r="J19">
-        <v>0.0007490814268677321</v>
+        <v>0.0001507550794165562</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N19">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O19">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P19">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q19">
-        <v>0.1072406909643333</v>
+        <v>0.01023336510544444</v>
       </c>
       <c r="R19">
-        <v>0.9651662186789999</v>
+        <v>0.09210028594899999</v>
       </c>
       <c r="S19">
-        <v>2.368402274165632E-05</v>
+        <v>3.551741915998995E-06</v>
       </c>
       <c r="T19">
-        <v>3.417963489096798E-05</v>
+        <v>4.95061749815498E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>55.29909549999999</v>
+        <v>43.8580935</v>
       </c>
       <c r="H20">
-        <v>110.598191</v>
+        <v>87.71618699999999</v>
       </c>
       <c r="I20">
-        <v>0.2004202033530833</v>
+        <v>0.1697259706363203</v>
       </c>
       <c r="J20">
-        <v>0.144630416804034</v>
+        <v>0.1213168754167622</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N20">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O20">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P20">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q20">
-        <v>2.924990357376999</v>
+        <v>29.030724681894</v>
       </c>
       <c r="R20">
-        <v>11.699961429508</v>
+        <v>116.122898727576</v>
       </c>
       <c r="S20">
-        <v>0.0006459818332043602</v>
+        <v>0.01007582946978528</v>
       </c>
       <c r="T20">
-        <v>0.0004143332020533472</v>
+        <v>0.006241892177137788</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>55.29909549999999</v>
+        <v>43.8580935</v>
       </c>
       <c r="H21">
-        <v>110.598191</v>
+        <v>87.71618699999999</v>
       </c>
       <c r="I21">
-        <v>0.2004202033530833</v>
+        <v>0.1697259706363203</v>
       </c>
       <c r="J21">
-        <v>0.144630416804034</v>
+        <v>0.1213168754167622</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.447531</v>
       </c>
       <c r="O21">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P21">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q21">
-        <v>155.7136078360701</v>
+        <v>123.4975348140495</v>
       </c>
       <c r="R21">
-        <v>934.2816470164208</v>
+        <v>740.9852088842969</v>
       </c>
       <c r="S21">
-        <v>0.03438922852894886</v>
+        <v>0.0428628673365949</v>
       </c>
       <c r="T21">
-        <v>0.03308591303999427</v>
+        <v>0.0398297823201976</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>55.29909549999999</v>
+        <v>43.8580935</v>
       </c>
       <c r="H22">
-        <v>110.598191</v>
+        <v>87.71618699999999</v>
       </c>
       <c r="I22">
-        <v>0.2004202033530833</v>
+        <v>0.1697259706363203</v>
       </c>
       <c r="J22">
-        <v>0.144630416804034</v>
+        <v>0.1213168754167622</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N22">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O22">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P22">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q22">
-        <v>12.5157889854195</v>
+        <v>8.7648499342365</v>
       </c>
       <c r="R22">
-        <v>75.09473391251699</v>
+        <v>52.58909960541899</v>
       </c>
       <c r="S22">
-        <v>0.002764102210596848</v>
+        <v>0.00304205748334988</v>
       </c>
       <c r="T22">
-        <v>0.002659345652272432</v>
+        <v>0.002826793793701889</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>55.29909549999999</v>
+        <v>43.8580935</v>
       </c>
       <c r="H23">
-        <v>110.598191</v>
+        <v>87.71618699999999</v>
       </c>
       <c r="I23">
-        <v>0.2004202033530833</v>
+        <v>0.1697259706363203</v>
       </c>
       <c r="J23">
-        <v>0.144630416804034</v>
+        <v>0.1213168754167622</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N23">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O23">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P23">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q23">
-        <v>677.5283060540416</v>
+        <v>309.5477485792964</v>
       </c>
       <c r="R23">
-        <v>2710.113224216167</v>
+        <v>1238.190994317186</v>
       </c>
       <c r="S23">
-        <v>0.1496315965927212</v>
+        <v>0.1074361856831704</v>
       </c>
       <c r="T23">
-        <v>0.09597381127125856</v>
+        <v>0.06655581944576069</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>55.29909549999999</v>
+        <v>43.8580935</v>
       </c>
       <c r="H24">
-        <v>110.598191</v>
+        <v>87.71618699999999</v>
       </c>
       <c r="I24">
-        <v>0.2004202033530833</v>
+        <v>0.1697259706363203</v>
       </c>
       <c r="J24">
-        <v>0.144630416804034</v>
+        <v>0.1213168754167622</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N24">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O24">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P24">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q24">
-        <v>27.75664366495166</v>
+        <v>5.825115023753998</v>
       </c>
       <c r="R24">
-        <v>166.53986198971</v>
+        <v>34.950690142524</v>
       </c>
       <c r="S24">
-        <v>0.006130033048849006</v>
+        <v>0.002021749930956265</v>
       </c>
       <c r="T24">
-        <v>0.005897711261995225</v>
+        <v>0.001878685787012486</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>55.29909549999999</v>
+        <v>43.8580935</v>
       </c>
       <c r="H25">
-        <v>110.598191</v>
+        <v>87.71618699999999</v>
       </c>
       <c r="I25">
-        <v>0.2004202033530833</v>
+        <v>0.1697259706363203</v>
       </c>
       <c r="J25">
-        <v>0.144630416804034</v>
+        <v>0.1213168754167622</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N25">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O25">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P25">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q25">
-        <v>31.05857109028849</v>
+        <v>12.3526174149105</v>
       </c>
       <c r="R25">
-        <v>186.3514265417309</v>
+        <v>74.11570448946298</v>
       </c>
       <c r="S25">
-        <v>0.006859261138762985</v>
+        <v>0.004287280732463547</v>
       </c>
       <c r="T25">
-        <v>0.006599302376460173</v>
+        <v>0.003983901892951756</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>6.372121666666668</v>
+        <v>0.06670933333333333</v>
       </c>
       <c r="H26">
-        <v>19.116365</v>
+        <v>0.200128</v>
       </c>
       <c r="I26">
-        <v>0.02309444501174385</v>
+        <v>0.0002581577411818376</v>
       </c>
       <c r="J26">
-        <v>0.02499867143150694</v>
+        <v>0.0002767893187537413</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N26">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O26">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P26">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q26">
-        <v>0.3370470034366667</v>
+        <v>0.04415650875733333</v>
       </c>
       <c r="R26">
-        <v>2.02228202062</v>
+        <v>0.264939052544</v>
       </c>
       <c r="S26">
-        <v>7.443656715207136E-05</v>
+        <v>1.532560613264527E-05</v>
       </c>
       <c r="T26">
-        <v>7.161549976952638E-05</v>
+        <v>1.42411274400953E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>6.372121666666668</v>
+        <v>0.06670933333333333</v>
       </c>
       <c r="H27">
-        <v>19.116365</v>
+        <v>0.200128</v>
       </c>
       <c r="I27">
-        <v>0.02309444501174385</v>
+        <v>0.0002581577411818376</v>
       </c>
       <c r="J27">
-        <v>0.02499867143150694</v>
+        <v>0.0002767893187537413</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.447531</v>
       </c>
       <c r="O27">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P27">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q27">
-        <v>17.94289843831278</v>
+        <v>0.1878430537742222</v>
       </c>
       <c r="R27">
-        <v>161.486085944815</v>
+        <v>1.690587483968</v>
       </c>
       <c r="S27">
-        <v>0.00396267508949159</v>
+        <v>6.519556771840426E-05</v>
       </c>
       <c r="T27">
-        <v>0.00571874082489098</v>
+        <v>9.087324641889078E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.06670933333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.200128</v>
+      </c>
+      <c r="I28">
+        <v>0.0002581577411818376</v>
+      </c>
+      <c r="J28">
+        <v>0.0002767893187537413</v>
+      </c>
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>6.372121666666668</v>
-      </c>
-      <c r="H28">
-        <v>19.116365</v>
-      </c>
-      <c r="I28">
-        <v>0.02309444501174385</v>
-      </c>
-      <c r="J28">
-        <v>0.02499867143150694</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N28">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O28">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P28">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q28">
-        <v>1.442195924695</v>
+        <v>0.01333157119288889</v>
       </c>
       <c r="R28">
-        <v>12.979763322255</v>
+        <v>0.119984140736</v>
       </c>
       <c r="S28">
-        <v>0.0003185078422308988</v>
+        <v>4.627050801374854E-06</v>
       </c>
       <c r="T28">
-        <v>0.0004596550964382672</v>
+        <v>6.449443457294507E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>6.372121666666668</v>
+        <v>0.06670933333333333</v>
       </c>
       <c r="H29">
-        <v>19.116365</v>
+        <v>0.200128</v>
       </c>
       <c r="I29">
-        <v>0.02309444501174385</v>
+        <v>0.0002581577411818376</v>
       </c>
       <c r="J29">
-        <v>0.02499867143150694</v>
+        <v>0.0002767893187537413</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N29">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O29">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P29">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q29">
-        <v>78.07167115033418</v>
+        <v>0.4708304053973332</v>
       </c>
       <c r="R29">
-        <v>468.4300269020051</v>
+        <v>2.824982432383999</v>
       </c>
       <c r="S29">
-        <v>0.01724206752471033</v>
+        <v>0.0001634133121358891</v>
       </c>
       <c r="T29">
-        <v>0.01658861135172177</v>
+        <v>0.000151849772426168</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>6.372121666666668</v>
+        <v>0.06670933333333333</v>
       </c>
       <c r="H30">
-        <v>19.116365</v>
+        <v>0.200128</v>
       </c>
       <c r="I30">
-        <v>0.02309444501174385</v>
+        <v>0.0002581577411818376</v>
       </c>
       <c r="J30">
-        <v>0.02499867143150694</v>
+        <v>0.0002767893187537413</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N30">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O30">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P30">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q30">
-        <v>3.198401508961112</v>
+        <v>0.008860155761777776</v>
       </c>
       <c r="R30">
-        <v>28.78561358065</v>
+        <v>0.07974140185599998</v>
       </c>
       <c r="S30">
-        <v>0.000706364472235418</v>
+        <v>3.075135722915205E-06</v>
       </c>
       <c r="T30">
-        <v>0.001019391005671253</v>
+        <v>4.286296999928129E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>6.372121666666668</v>
+        <v>0.06670933333333333</v>
       </c>
       <c r="H31">
-        <v>19.116365</v>
+        <v>0.200128</v>
       </c>
       <c r="I31">
-        <v>0.02309444501174385</v>
+        <v>0.0002581577411818376</v>
       </c>
       <c r="J31">
-        <v>0.02499867143150694</v>
+        <v>0.0002767893187537413</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N31">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O31">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P31">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q31">
-        <v>3.578883017718333</v>
+        <v>0.01878866149688889</v>
       </c>
       <c r="R31">
-        <v>32.209947159465</v>
+        <v>0.169097953472</v>
       </c>
       <c r="S31">
-        <v>0.0007903935159235343</v>
+        <v>6.521068670608957E-06</v>
       </c>
       <c r="T31">
-        <v>0.001140657653015139</v>
+        <v>9.089432011364664E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.1973266666666667</v>
+        <v>0.01669866666666667</v>
       </c>
       <c r="H32">
-        <v>0.5919800000000001</v>
+        <v>0.050096</v>
       </c>
       <c r="I32">
-        <v>0.0007151699372789817</v>
+        <v>6.46219929357478E-05</v>
       </c>
       <c r="J32">
-        <v>0.0007741384679578716</v>
+        <v>6.92858456202402E-05</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.052894</v>
+        <v>0.661924</v>
       </c>
       <c r="N32">
-        <v>0.105788</v>
+        <v>1.323848</v>
       </c>
       <c r="O32">
-        <v>0.003223137300516178</v>
+        <v>0.05936527823060875</v>
       </c>
       <c r="P32">
-        <v>0.002864772232626178</v>
+        <v>0.05145114524005746</v>
       </c>
       <c r="Q32">
-        <v>0.01043739670666667</v>
+        <v>0.01105324823466667</v>
       </c>
       <c r="R32">
-        <v>0.06262438024</v>
+        <v>0.066319489408</v>
       </c>
       <c r="S32">
-        <v>2.305090901051701E-06</v>
+        <v>3.836302590447102E-06</v>
       </c>
       <c r="T32">
-        <v>2.21773038721348E-06</v>
+        <v>3.564836106087177E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.1973266666666667</v>
+        <v>0.01669866666666667</v>
       </c>
       <c r="H33">
-        <v>0.5919800000000001</v>
+        <v>0.050096</v>
       </c>
       <c r="I33">
-        <v>0.0007151699372789817</v>
+        <v>6.46219929357478E-05</v>
       </c>
       <c r="J33">
-        <v>0.0007741384679578716</v>
+        <v>6.92858456202402E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.447531</v>
       </c>
       <c r="O33">
-        <v>0.1715856383418833</v>
+        <v>0.2525415949951417</v>
       </c>
       <c r="P33">
-        <v>0.2287617900239049</v>
+        <v>0.3283119696527757</v>
       </c>
       <c r="Q33">
-        <v>0.5556410445977777</v>
+        <v>0.04702083477511111</v>
       </c>
       <c r="R33">
-        <v>5.00076940138</v>
+        <v>0.423187512976</v>
       </c>
       <c r="S33">
-        <v>0.0001227128902109387</v>
+        <v>1.631974116775853E-05</v>
       </c>
       <c r="T33">
-        <v>0.000177093301656406</v>
+        <v>2.27473724446392E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.01669866666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.050096</v>
+      </c>
+      <c r="I34">
+        <v>6.46219929357478E-05</v>
+      </c>
+      <c r="J34">
+        <v>6.92858456202402E-05</v>
+      </c>
+      <c r="K34">
         <v>3</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.1973266666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.5919800000000001</v>
-      </c>
-      <c r="I34">
-        <v>0.0007151699372789817</v>
-      </c>
-      <c r="J34">
-        <v>0.0007741384679578716</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.226329</v>
+        <v>0.1998456666666667</v>
       </c>
       <c r="N34">
-        <v>0.678987</v>
+        <v>0.599537</v>
       </c>
       <c r="O34">
-        <v>0.01379153480713362</v>
+        <v>0.01792334709853119</v>
       </c>
       <c r="P34">
-        <v>0.01838718100270494</v>
+        <v>0.02330091163319983</v>
       </c>
       <c r="Q34">
-        <v>0.04466074714000001</v>
+        <v>0.003337156172444445</v>
       </c>
       <c r="R34">
-        <v>0.4019467242600001</v>
+        <v>0.030034405552</v>
       </c>
       <c r="S34">
-        <v>9.863291082998647E-06</v>
+        <v>1.158242409586238E-06</v>
       </c>
       <c r="T34">
-        <v>1.423422413149809E-05</v>
+        <v>1.614423366228742E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.1973266666666667</v>
+        <v>0.01669866666666667</v>
       </c>
       <c r="H35">
-        <v>0.5919800000000001</v>
+        <v>0.050096</v>
       </c>
       <c r="I35">
-        <v>0.0007151699372789817</v>
+        <v>6.46219929357478E-05</v>
       </c>
       <c r="J35">
-        <v>0.0007741384679578716</v>
+        <v>6.92858456202402E-05</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>12.2520685</v>
+        <v>7.057938999999999</v>
       </c>
       <c r="N35">
-        <v>24.504137</v>
+        <v>14.115878</v>
       </c>
       <c r="O35">
-        <v>0.7465893861464306</v>
+        <v>0.6329979158780531</v>
       </c>
       <c r="P35">
-        <v>0.6635797185131369</v>
+        <v>0.5486113882930154</v>
       </c>
       <c r="Q35">
-        <v>2.417659836876667</v>
+        <v>0.1178581707146667</v>
       </c>
       <c r="R35">
-        <v>14.50595902126</v>
+        <v>0.707149024288</v>
       </c>
       <c r="S35">
-        <v>0.0005339382844634962</v>
+        <v>4.090558684821462E-05</v>
       </c>
       <c r="T35">
-        <v>0.0005137025866576756</v>
+        <v>3.801100395477551E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.1973266666666667</v>
+        <v>0.01669866666666667</v>
       </c>
       <c r="H36">
-        <v>0.5919800000000001</v>
+        <v>0.050096</v>
       </c>
       <c r="I36">
-        <v>0.0007151699372789817</v>
+        <v>6.46219929357478E-05</v>
       </c>
       <c r="J36">
-        <v>0.0007741384679578716</v>
+        <v>6.92858456202402E-05</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.5019366666666667</v>
+        <v>0.1328173333333333</v>
       </c>
       <c r="N36">
-        <v>1.50581</v>
+        <v>0.398452</v>
       </c>
       <c r="O36">
-        <v>0.03058590374768572</v>
+        <v>0.01191184780606359</v>
       </c>
       <c r="P36">
-        <v>0.0407778072712484</v>
+        <v>0.01548577459284704</v>
       </c>
       <c r="Q36">
-        <v>0.09904548931111112</v>
+        <v>0.002217872376888889</v>
       </c>
       <c r="R36">
-        <v>0.8914094038000001</v>
+        <v>0.019960851392</v>
       </c>
       <c r="S36">
-        <v>2.187411886485337E-05</v>
+        <v>7.697673447751446E-07</v>
       </c>
       <c r="T36">
-        <v>3.156766924764559E-05</v>
+        <v>1.072944987749838E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.1973266666666667</v>
+        <v>0.01669866666666667</v>
       </c>
       <c r="H37">
-        <v>0.5919800000000001</v>
+        <v>0.050096</v>
       </c>
       <c r="I37">
-        <v>0.0007151699372789817</v>
+        <v>6.46219929357478E-05</v>
       </c>
       <c r="J37">
-        <v>0.0007741384679578716</v>
+        <v>6.92858456202402E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.5616469999999999</v>
+        <v>0.2816496666666666</v>
       </c>
       <c r="N37">
-        <v>1.684941</v>
+        <v>0.844949</v>
       </c>
       <c r="O37">
-        <v>0.03422439965635062</v>
+        <v>0.02526001599160157</v>
       </c>
       <c r="P37">
-        <v>0.04562873095637865</v>
+        <v>0.03283881058810476</v>
       </c>
       <c r="Q37">
-        <v>0.1108279303533333</v>
+        <v>0.004703173900444444</v>
       </c>
       <c r="R37">
-        <v>0.99745137318</v>
+        <v>0.042328565104</v>
       </c>
       <c r="S37">
-        <v>2.447626175564307E-05</v>
+        <v>1.632352574966153E-06</v>
       </c>
       <c r="T37">
-        <v>3.532295587743288E-05</v>
+        <v>2.275264760759735E-06</v>
       </c>
     </row>
   </sheetData>
